--- a/src/main/resources/template/excel/export/purchaseCostForm.xlsx
+++ b/src/main/resources/template/excel/export/purchaseCostForm.xlsx
@@ -282,63 +282,63 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>${obj.oldPurAmount}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.newPurAmount}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.diffMoney}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.costPrice}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.newCostPrice}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.actual}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.supplierName}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.formNo}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.refFormNo}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.spec}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.unit}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.validUserName}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.validTimeStr}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.remark}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>${obj.realNum}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.oldPurAmount}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.newPurAmount}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.diffMoney}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.costPrice}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.newCostPrice}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.actual}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.supplierName}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.formNo}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.refFormNo}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.spec}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.unit}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.validUserName}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.validTimeStr}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.remark}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -346,9 +346,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
-    <numFmt numFmtId="178" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -467,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -486,12 +485,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -867,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K4" sqref="E3:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -988,49 +983,49 @@
         <v>31</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="K3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="L3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -1040,25 +1035,25 @@
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="L4" s="6"/>

--- a/src/main/resources/template/excel/export/purchaseCostForm.xlsx
+++ b/src/main/resources/template/excel/export/purchaseCostForm.xlsx
@@ -93,10 +93,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(I3:I3+0)/SUMPRODUCT(E3:E3+0)]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>采购成本调整查询</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -339,6 +335,10 @@
   </si>
   <si>
     <t>${obj.realNum}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(J3:J3+0)]</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -482,11 +482,11 @@
     <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -862,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K4" sqref="E3:K4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -888,144 +888,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
+      <c r="A1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -1051,7 +1051,7 @@
         <v>2</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>1</v>
